--- a/data/pda_especies_ameacadas.xlsx
+++ b/data/pda_especies_ameacadas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5935" uniqueCount="2911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5934" uniqueCount="2909">
   <si>
     <t>sq_ficha</t>
   </si>
@@ -8681,10 +8681,7 @@
     <t>Arrhopalites amorimi</t>
   </si>
   <si>
-    <t>Colêmbolo/Pulga-de-jardim/Springtail</t>
-  </si>
-  <si>
-    <t>Snowflea</t>
+    <t>Colêmbolo/Pulga-de-jardim/Springtail/Snowflea</t>
   </si>
   <si>
     <t>Parque Estadual Turístico do Alto do Ribeira</t>
@@ -8715,9 +8712,6 @@
   </si>
   <si>
     <t>Raia-manta/Raia jamanta</t>
-  </si>
-  <si>
-    <t>Pexes Marinhos</t>
   </si>
   <si>
     <t>Ozotoceros bezoarticus leucogaster</t>
@@ -35976,16 +35970,13 @@
         <v>2889</v>
       </c>
       <c r="E1165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1165" s="1" t="s">
         <v>2890</v>
-      </c>
-      <c r="F1165" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1165" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1165" s="1" t="s">
-        <v>2891</v>
       </c>
     </row>
     <row r="1166">
@@ -35993,7 +35984,7 @@
         <v>320011.0</v>
       </c>
       <c r="C1166" s="1" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="E1166" s="1" t="s">
         <v>42</v>
@@ -36007,10 +35998,10 @@
         <v>2025844.0</v>
       </c>
       <c r="C1167" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D1167" s="1" t="s">
         <v>2893</v>
-      </c>
-      <c r="D1167" s="1" t="s">
-        <v>2894</v>
       </c>
       <c r="E1167" s="1" t="s">
         <v>10</v>
@@ -36024,10 +36015,10 @@
         <v>11665.0</v>
       </c>
       <c r="C1168" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D1168" s="1" t="s">
         <v>2895</v>
-      </c>
-      <c r="D1168" s="1" t="s">
-        <v>2896</v>
       </c>
       <c r="E1168" s="1" t="s">
         <v>10</v>
@@ -36041,10 +36032,10 @@
         <v>2026011.0</v>
       </c>
       <c r="C1169" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D1169" s="1" t="s">
         <v>2897</v>
-      </c>
-      <c r="D1169" s="1" t="s">
-        <v>2898</v>
       </c>
       <c r="E1169" s="1" t="s">
         <v>10</v>
@@ -36058,13 +36049,13 @@
         <v>1019956.0</v>
       </c>
       <c r="C1170" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D1170" s="1" t="s">
         <v>2899</v>
       </c>
-      <c r="D1170" s="1" t="s">
-        <v>2900</v>
-      </c>
       <c r="E1170" s="1" t="s">
-        <v>2901</v>
+        <v>114</v>
       </c>
       <c r="F1170" s="1" t="s">
         <v>14</v>
@@ -36075,10 +36066,10 @@
         <v>2026052.0</v>
       </c>
       <c r="C1171" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="D1171" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="E1171" s="1" t="s">
         <v>90</v>
@@ -36092,10 +36083,10 @@
         <v>9136.0</v>
       </c>
       <c r="C1172" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="D1172" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="E1172" s="1" t="s">
         <v>10</v>
@@ -36109,10 +36100,10 @@
         <v>2026038.0</v>
       </c>
       <c r="C1173" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="D1173" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="E1173" s="1" t="s">
         <v>10</v>
@@ -36126,10 +36117,10 @@
         <v>6891.0</v>
       </c>
       <c r="C1174" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="D1174" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="E1174" s="1" t="s">
         <v>10</v>
@@ -36138,10 +36129,10 @@
         <v>14</v>
       </c>
       <c r="G1174" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="H1174" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
     </row>
   </sheetData>
